--- a/db/newDatabase.xlsx
+++ b/db/newDatabase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="app_version_android" sheetId="1" r:id="rId1"/>
@@ -17,20 +17,25 @@
     <sheet name="sub_district_or_ps" sheetId="8" r:id="rId8"/>
     <sheet name="ad_category" sheetId="9" r:id="rId9"/>
     <sheet name="service_type" sheetId="10" r:id="rId10"/>
-    <sheet name="selling_product_type" sheetId="11" r:id="rId11"/>
+    <sheet name="selling_product_category" sheetId="11" r:id="rId11"/>
     <sheet name="job_category" sheetId="12" r:id="rId12"/>
     <sheet name="food_business_type" sheetId="13" r:id="rId13"/>
     <sheet name="login" sheetId="14" r:id="rId14"/>
     <sheet name="car_type" sheetId="15" r:id="rId15"/>
     <sheet name="rent_a_car" sheetId="16" r:id="rId16"/>
     <sheet name="rent_a_service" sheetId="17" r:id="rId17"/>
+    <sheet name="swapping_by" sheetId="20" r:id="rId18"/>
+    <sheet name="occupation" sheetId="21" r:id="rId19"/>
+    <sheet name="product_condition" sheetId="19" r:id="rId20"/>
+    <sheet name="post" sheetId="18" r:id="rId21"/>
+    <sheet name="marital_status" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="279">
   <si>
     <t>app_version_android_id</t>
   </si>
@@ -618,6 +623,255 @@
   </si>
   <si>
     <t>int unsignedDEFAULT NULL</t>
+  </si>
+  <si>
+    <t>post_id</t>
+  </si>
+  <si>
+    <t>ref_post_ad_category_id</t>
+  </si>
+  <si>
+    <t>ref_post_login_id</t>
+  </si>
+  <si>
+    <t>ref_post_division_id</t>
+  </si>
+  <si>
+    <t>ref_post_district_id</t>
+  </si>
+  <si>
+    <t>ref_post_sub_district_or_ps_id</t>
+  </si>
+  <si>
+    <t>post_address</t>
+  </si>
+  <si>
+    <t>post_mobile_no</t>
+  </si>
+  <si>
+    <t>post_contact_person_full_name</t>
+  </si>
+  <si>
+    <t>product_condition_id</t>
+  </si>
+  <si>
+    <t>product_condition_name_en</t>
+  </si>
+  <si>
+    <t>product_condition_name_bn</t>
+  </si>
+  <si>
+    <t>product_condition_active</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY(product_condition_id)</t>
+  </si>
+  <si>
+    <t>UNIQUE KEY(product_condition_name_en)</t>
+  </si>
+  <si>
+    <t>UNIQUE KEY(product_condition_name_bn)</t>
+  </si>
+  <si>
+    <t>tinyint unsigned not null DEFAULT 1</t>
+  </si>
+  <si>
+    <t>swapping_by_id</t>
+  </si>
+  <si>
+    <t>swapping_by_name_en</t>
+  </si>
+  <si>
+    <t>swapping_by_name_bd</t>
+  </si>
+  <si>
+    <t>swapping_by_active</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY(swapping_by_id)</t>
+  </si>
+  <si>
+    <t>UNIQUE KEY(swapping_by_name_en)</t>
+  </si>
+  <si>
+    <t>UNIQUE KEY(swapping_by_name_bd)</t>
+  </si>
+  <si>
+    <t>tinyint unsigned not null auto_increment</t>
+  </si>
+  <si>
+    <t>tinyint not null default 1</t>
+  </si>
+  <si>
+    <t>post_swapping_details</t>
+  </si>
+  <si>
+    <t>post_swapping_exchange_amount</t>
+  </si>
+  <si>
+    <t>post_title</t>
+  </si>
+  <si>
+    <t>post_swapping_about_exchange_details</t>
+  </si>
+  <si>
+    <t>post_details</t>
+  </si>
+  <si>
+    <t>post_amount</t>
+  </si>
+  <si>
+    <t>ref_post_job_category_id</t>
+  </si>
+  <si>
+    <t>post_gender</t>
+  </si>
+  <si>
+    <t>post_education_requirements</t>
+  </si>
+  <si>
+    <t>post_job_salary</t>
+  </si>
+  <si>
+    <t>ref_post_food_business_type_id</t>
+  </si>
+  <si>
+    <t>post_food_list</t>
+  </si>
+  <si>
+    <t>post_food_timetable</t>
+  </si>
+  <si>
+    <t>post_birth_date</t>
+  </si>
+  <si>
+    <t>post_instructions_mendium</t>
+  </si>
+  <si>
+    <t>post_interested_classes</t>
+  </si>
+  <si>
+    <t>post_interested_subjects</t>
+  </si>
+  <si>
+    <t>post_wanted_grrom</t>
+  </si>
+  <si>
+    <t>post_wanted_bride</t>
+  </si>
+  <si>
+    <t>post_bride_groom_name</t>
+  </si>
+  <si>
+    <t>post_bride_groom_height</t>
+  </si>
+  <si>
+    <t>post_bride_groom_religion</t>
+  </si>
+  <si>
+    <t>occupation_id</t>
+  </si>
+  <si>
+    <t>occupation_name_en</t>
+  </si>
+  <si>
+    <t>occupation_name_bd</t>
+  </si>
+  <si>
+    <t>occupation_active</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY(occupation_id)</t>
+  </si>
+  <si>
+    <t>UNIQUE KEY(occupation_name_en)</t>
+  </si>
+  <si>
+    <t>UNIQUE KEY(occupation_name_bd)</t>
+  </si>
+  <si>
+    <t>ref_post_bride_groom_occupation_id</t>
+  </si>
+  <si>
+    <t>marital_status_id</t>
+  </si>
+  <si>
+    <t>marital_status_name_en</t>
+  </si>
+  <si>
+    <t>marital_status_name_bd</t>
+  </si>
+  <si>
+    <t>post_bride_groom_home_address</t>
+  </si>
+  <si>
+    <t>post_bride_groom_expectation_details</t>
+  </si>
+  <si>
+    <t>post_ending_date_time</t>
+  </si>
+  <si>
+    <t>post_created_date_time</t>
+  </si>
+  <si>
+    <t>post_editing_date_time</t>
+  </si>
+  <si>
+    <t>post_weight</t>
+  </si>
+  <si>
+    <t>post_active</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY(post_id)</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY() REFERENCES ()</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY(ref_post_login_id) REFERENCES ()</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY(ref_post_ad_category_id) REFERENCES ()</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY(ref_post_division_id) REFERENCES ()</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY(ref_post_district_id) REFERENCES ()</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY(ref_post_sub_district_or_ps_id) REFERENCES ()</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY(ref_post_swapping_product_category_id) REFERENCES ()</t>
+  </si>
+  <si>
+    <t>post_swapping_product_name</t>
+  </si>
+  <si>
+    <t>ref_post_swapping_by_id</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY(ref_post_swapping_by_id) REFERENCES ()</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY(ref_target_swapping_exchange_product_category_id) REFERENCES ()</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY(ref_post_product_category_id) REFERENCES ()</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY(ref_post_job_category_id) REFERENCES ()</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY(ref_post_food_business_type_id) REFERENCES ()</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY(ref_post_bride_groom_occupation_id) REFERENCES ()</t>
+  </si>
+  <si>
+    <t>ref_post_product_category_id [swapping_product id and normal product_id)</t>
   </si>
 </sst>
 </file>
@@ -633,12 +887,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -653,8 +925,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1523,7 +1798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1891,6 +2166,126 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="52.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1929,6 +2324,405 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.875" customWidth="1"/>
+    <col min="2" max="2" width="66.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>

--- a/db/newDatabase.xlsx
+++ b/db/newDatabase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="643" firstSheet="11" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="app_version_android" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="282">
   <si>
     <t>app_version_android_id</t>
   </si>
@@ -574,9 +574,6 @@
     <t>rent_a_service_mobile_no</t>
   </si>
   <si>
-    <t>varchar(100) DEFAULT NULL comment'multiple number will be separated by coma(,)</t>
-  </si>
-  <si>
     <t>rent_a_service_image_1</t>
   </si>
   <si>
@@ -673,9 +670,6 @@
     <t>UNIQUE KEY(product_condition_name_bn)</t>
   </si>
   <si>
-    <t>tinyint unsigned not null DEFAULT 1</t>
-  </si>
-  <si>
     <t>swapping_by_id</t>
   </si>
   <si>
@@ -697,12 +691,6 @@
     <t>UNIQUE KEY(swapping_by_name_bd)</t>
   </si>
   <si>
-    <t>tinyint unsigned not null auto_increment</t>
-  </si>
-  <si>
-    <t>tinyint not null default 1</t>
-  </si>
-  <si>
     <t>post_swapping_details</t>
   </si>
   <si>
@@ -872,6 +860,27 @@
   </si>
   <si>
     <t>ref_post_product_category_id [swapping_product id and normal product_id)</t>
+  </si>
+  <si>
+    <t>DATETIME NOT NULL</t>
+  </si>
+  <si>
+    <t>varchar(200) DEFAULT NULL comment'multiple number will be separated by coma(,)</t>
+  </si>
+  <si>
+    <t>tinyint unsigned NOT NULL DEFAULT 1</t>
+  </si>
+  <si>
+    <t>tinyint NOT NULL DEFAULT 1</t>
+  </si>
+  <si>
+    <t>UNIQUE KEY(marital_status_name_en),</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY(marital_status_id),</t>
+  </si>
+  <si>
+    <t>UNIQUE  KEY(marital_status_name_bd)</t>
   </si>
 </sst>
 </file>
@@ -925,11 +934,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1289,7 +1301,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1375,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,7 +1449,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1857,7 @@
         <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1853,7 +1865,7 @@
         <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1995,7 +2007,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,7 +2050,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
         <v>147</v>
@@ -2065,7 +2077,7 @@
         <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2073,12 +2085,12 @@
         <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
         <v>164</v>
@@ -2086,7 +2098,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" t="s">
         <v>164</v>
@@ -2094,7 +2106,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
         <v>164</v>
@@ -2102,7 +2114,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" t="s">
         <v>164</v>
@@ -2110,7 +2122,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s">
         <v>164</v>
@@ -2118,15 +2130,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s">
         <v>129</v>
@@ -2134,7 +2146,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s">
         <v>159</v>
@@ -2142,7 +2154,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -2150,22 +2162,22 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2189,15 +2201,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -2205,7 +2217,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
@@ -2213,25 +2225,25 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2241,51 +2253,63 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.625" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="2" max="3" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2329,7 +2353,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,15 +2364,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
         <v>121</v>
@@ -2356,7 +2380,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
         <v>121</v>
@@ -2364,25 +2388,25 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2394,7 +2418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
@@ -2406,282 +2430,282 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2692,30 +2716,55 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="34.875" customWidth="1"/>
+    <col min="2" max="2" width="45.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2859,7 +2908,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,7 +3053,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/db/newDatabase.xlsx
+++ b/db/newDatabase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="app_version_android" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="279">
   <si>
     <t>app_version_android_id</t>
   </si>
@@ -346,9 +346,6 @@
     <t>login_password</t>
   </si>
   <si>
-    <t>lohgin_fullname</t>
-  </si>
-  <si>
     <t>login_gender</t>
   </si>
   <si>
@@ -418,9 +415,6 @@
     <t>int unsigned DEFAULT NULL</t>
   </si>
   <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
     <t>TIMESTAMP NOT NULL</t>
   </si>
   <si>
@@ -745,21 +739,12 @@
     <t>post_birth_date</t>
   </si>
   <si>
-    <t>post_instructions_mendium</t>
-  </si>
-  <si>
     <t>post_interested_classes</t>
   </si>
   <si>
     <t>post_interested_subjects</t>
   </si>
   <si>
-    <t>post_wanted_grrom</t>
-  </si>
-  <si>
-    <t>post_wanted_bride</t>
-  </si>
-  <si>
     <t>post_bride_groom_name</t>
   </si>
   <si>
@@ -802,9 +787,6 @@
     <t>marital_status_name_bd</t>
   </si>
   <si>
-    <t>post_bride_groom_home_address</t>
-  </si>
-  <si>
     <t>post_bride_groom_expectation_details</t>
   </si>
   <si>
@@ -871,7 +853,25 @@
     <t>FOREIGN KEY(ref_post_bride_groom_occupation_id) REFERENCES ()</t>
   </si>
   <si>
-    <t>ref_post_product_category_id [swapping_product id and normal product_id)</t>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>lohgin_full_name</t>
+  </si>
+  <si>
+    <t>DATETIME NOT NULL</t>
+  </si>
+  <si>
+    <t>ref_post_selling_product_category_id [swapping_product id and normal product_id)</t>
+  </si>
+  <si>
+    <t>post_instructions_medium</t>
+  </si>
+  <si>
+    <t>post_wanted_groom_bride</t>
+  </si>
+  <si>
+    <t>post_bride_groom_home_town_address</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1363,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,7 +1569,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1583,7 @@
         <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1599,28 +1599,28 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1628,71 +1628,71 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -1700,27 +1700,27 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1732,9 +1732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1744,7 +1742,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
@@ -1752,7 +1750,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -1760,7 +1758,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
@@ -1768,7 +1766,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -1776,17 +1774,17 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1797,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,63 +1808,63 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1874,115 +1872,115 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" t="s">
         <v>157</v>
-      </c>
-      <c r="B18" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" t="s">
         <v>158</v>
-      </c>
-      <c r="B19" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2006,55 +2004,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -2062,87 +2060,87 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -2150,22 +2148,22 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +2176,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,15 +2187,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -2205,7 +2203,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
@@ -2213,25 +2211,25 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2255,37 +2253,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2340,7 +2338,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B1" t="s">
         <v>92</v>
@@ -2348,41 +2346,41 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2392,10 +2390,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A56" sqref="A43:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2406,282 +2404,277 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>251</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>261</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2705,17 +2698,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3083,7 +3076,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
